--- a/ChristmasCal24_Clock/Cost.xlsx
+++ b/ChristmasCal24_Clock/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\ChristmasCalendar2024\ChristmasCal24_Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BBA221-EBAA-42D2-85D8-E7D0EFC68103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60906612-A7D3-4BEC-8CCA-81442645375A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{678CC532-8DFE-4ACA-BE8F-1C6BEC773078}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,15 +458,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -499,10 +499,10 @@
       </c>
       <c r="F2">
         <f>SUM(D2:D9)</f>
-        <v>3.0449999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5489999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -517,7 +517,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -562,22 +562,22 @@
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.63</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -592,19 +592,19 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.63</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
         <f>C9*B9</f>
-        <v>0.63</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
   </sheetData>
